--- a/results/technical/Time Results.xlsx
+++ b/results/technical/Time Results.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="222">
   <si>
     <t>scenarios</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>75.0</t>
   </si>
 </sst>
 </file>
@@ -1038,21 +1041,28 @@
           <c:dPt>
             <c:idx val="7"/>
             <c:marker>
-              <c:symbol val="star"/>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2DA8-4B96-B78E-89F2502107D6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="x"/>
               <c:size val="5"/>
               <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
+                <a:noFill/>
+                <a:ln w="19050">
                   <a:solidFill>
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="75000"/>
+                      <a:lumMod val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:headEnd type="none"/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1060,7 +1070,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2DA8-4B96-B78E-89F2502107D6}"/>
+                <c16:uniqueId val="{00000002-EF9D-4FB2-808E-CD4BC44E3522}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1156,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>50.685721254348699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.079517555236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1468,7 @@
         <c:axId val="352177800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
+          <c:max val="115"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2207,16 +2220,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97321</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321438</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>678345</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>92766</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>263727</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2239,15 +2252,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sos2_zero_10_tests" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="factor_zero_10_tests" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="factor_zero_10_tests" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nn_zero_10_tests" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nn_zero_10_tests" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sos2_zero_10_tests" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2515,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,6 +3095,9 @@
       <c r="Q11" s="3">
         <v>0.222565293</v>
       </c>
+      <c r="R11">
+        <v>109.079517555236</v>
+      </c>
       <c r="S11">
         <v>10.882620167732201</v>
       </c>
@@ -3959,11 +3975,11 @@
       <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>221</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>109.079517555236</v>
       </c>
       <c r="D32">
         <v>0</v>

--- a/results/technical/Time Results.xlsx
+++ b/results/technical/Time Results.xlsx
@@ -852,7 +852,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="75000"/>
@@ -1025,7 +1025,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -1053,19 +1053,7 @@
           <c:dPt>
             <c:idx val="8"/>
             <c:marker>
-              <c:symbol val="x"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="19050">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
+              <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
@@ -1195,7 +1183,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -1350,6 +1338,8 @@
         <c:axId val="352179440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1374,7 +1364,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1387,7 +1377,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO" sz="1600"/>
+                  <a:rPr lang="nb-NO" sz="2400"/>
                   <a:t>Scenarios</a:t>
                 </a:r>
               </a:p>
@@ -1407,7 +1397,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1445,7 +1435,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1469,6 +1459,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1493,7 +1484,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1506,8 +1497,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO" sz="1600"/>
-                  <a:t>Mean Solve Time (s)</a:t>
+                  <a:rPr lang="nb-NO" sz="2400"/>
+                  <a:t>Mean Solve Time 10 Runs (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1526,7 +1517,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1564,7 +1555,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1586,7 +1577,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1607,7 +1602,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2220,16 +2215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>321438</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>32157</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525545</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>263727</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25531</xdr:rowOff>
+      <xdr:colOff>351066</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2252,15 +2247,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sos2_zero_10_tests" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="factor_zero_10_tests" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nn_zero_10_tests" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sos2_zero_10_tests" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2529,7 +2524,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/technical/Time Results.xlsx
+++ b/results/technical/Time Results.xlsx
@@ -1498,7 +1498,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO" sz="2400"/>
-                  <a:t>Mean Solve Time 10 Runs (s)</a:t>
+                  <a:t>Mean Solution Time 10 Runs (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2247,15 +2247,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sos2_zero_10_tests" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="factor_zero_10_tests" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="factor_zero_10_tests" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nn_zero_10_tests" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nn_zero_10_tests" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sos2_zero_10_tests" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
